--- a/media/data.xlsx
+++ b/media/data.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,70 +571,6 @@
         </is>
       </c>
       <c r="F4" t="inlineStr">
-        <is>
-          <t>Kazakhstan</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Optimization of business processes based on the supply chain management in an accounting department</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Kintonova A.Z.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>International Journal of Supply Chain Management</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Saken Seifullin Kazakh Agrotechnical University</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Astana</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Kazakhstan</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Developing a mobile application "educational process remote management system" on the android operating system</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Abildinovaa G.M.</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>International Journal of Environmental and Science Education</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>L.N. Gumilyov Eurasian National University</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Nur-Sultan</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
         <is>
           <t>Kazakhstan</t>
         </is>
